--- a/mass_shape_homemade.xlsx
+++ b/mass_shape_homemade.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Pictures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\ronaldo\TOMPEI_CMMD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790094F8-FA1D-48BE-A4E0-D2ED42E524EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07B5416-E5BC-4C60-BC31-C78310FBD036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3079" uniqueCount="1035">
   <si>
     <t>ID</t>
   </si>
@@ -3123,6 +3123,9 @@
   </si>
   <si>
     <t>Rows without a valid ID or empty Shape are skipped. LEFTRIGHT normalized to L/R; empty if missing.</t>
+  </si>
+  <si>
+    <t>יש לך 4 צורות אני הולך לשלוח לך גידולים ואתה תגיד לי מה אתה חושב שהם IRREGULAR ROUND/OVAL POLYGONIAL LOBULAR</t>
   </si>
 </sst>
 </file>
@@ -3485,10 +3488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1020"/>
+  <dimension ref="A1:G1020"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
-      <selection activeCell="E251" sqref="E251"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3581,7 +3584,7 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -6265,7 +6268,7 @@
         <v>8</v>
       </c>
       <c r="E252" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
@@ -6287,7 +6290,7 @@
         <v>5</v>
       </c>
       <c r="E254" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
@@ -6331,7 +6334,7 @@
         <v>5</v>
       </c>
       <c r="E258" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
@@ -6364,7 +6367,7 @@
         <v>8</v>
       </c>
       <c r="E261" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
@@ -6408,7 +6411,7 @@
         <v>8</v>
       </c>
       <c r="E265" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
@@ -6452,7 +6455,7 @@
         <v>8</v>
       </c>
       <c r="E269" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
@@ -6518,7 +6521,7 @@
         <v>8</v>
       </c>
       <c r="E275" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
@@ -6573,7 +6576,7 @@
         <v>8</v>
       </c>
       <c r="E280" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
@@ -6584,7 +6587,7 @@
         <v>8</v>
       </c>
       <c r="E281" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
@@ -6595,7 +6598,7 @@
         <v>8</v>
       </c>
       <c r="E282" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
@@ -6606,7 +6609,7 @@
         <v>5</v>
       </c>
       <c r="E283" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
@@ -6617,7 +6620,7 @@
         <v>5</v>
       </c>
       <c r="E284" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
@@ -6639,7 +6642,7 @@
         <v>5</v>
       </c>
       <c r="E286" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
@@ -6683,7 +6686,7 @@
         <v>5</v>
       </c>
       <c r="E290" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
@@ -6694,7 +6697,7 @@
         <v>8</v>
       </c>
       <c r="E291" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
@@ -6771,7 +6774,7 @@
         <v>8</v>
       </c>
       <c r="E298" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
@@ -6804,7 +6807,7 @@
         <v>5</v>
       </c>
       <c r="E301" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
@@ -6826,7 +6829,7 @@
         <v>8</v>
       </c>
       <c r="E303" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
@@ -6870,7 +6873,7 @@
         <v>5</v>
       </c>
       <c r="E307" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
@@ -6925,7 +6928,7 @@
         <v>5</v>
       </c>
       <c r="E312" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
@@ -6947,7 +6950,7 @@
         <v>8</v>
       </c>
       <c r="E314" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
@@ -6991,7 +6994,7 @@
         <v>8</v>
       </c>
       <c r="E318" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
@@ -7013,7 +7016,7 @@
         <v>5</v>
       </c>
       <c r="E320" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
@@ -7024,7 +7027,7 @@
         <v>8</v>
       </c>
       <c r="E321" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
@@ -7035,7 +7038,7 @@
         <v>5</v>
       </c>
       <c r="E322" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
@@ -7057,7 +7060,7 @@
         <v>5</v>
       </c>
       <c r="E324" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
@@ -7068,7 +7071,7 @@
         <v>8</v>
       </c>
       <c r="E325" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
@@ -7112,7 +7115,7 @@
         <v>5</v>
       </c>
       <c r="E329" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
@@ -7134,7 +7137,7 @@
         <v>8</v>
       </c>
       <c r="E331" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
@@ -7156,7 +7159,7 @@
         <v>8</v>
       </c>
       <c r="E333" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
@@ -7167,7 +7170,7 @@
         <v>5</v>
       </c>
       <c r="E334" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
@@ -7189,7 +7192,7 @@
         <v>5</v>
       </c>
       <c r="E336" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
@@ -7200,7 +7203,7 @@
         <v>8</v>
       </c>
       <c r="E337" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
@@ -7222,7 +7225,7 @@
         <v>8</v>
       </c>
       <c r="E339" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
@@ -7244,7 +7247,7 @@
         <v>8</v>
       </c>
       <c r="E341" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
@@ -7255,7 +7258,7 @@
         <v>8</v>
       </c>
       <c r="E342" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
@@ -7277,7 +7280,7 @@
         <v>8</v>
       </c>
       <c r="E344" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
@@ -7288,7 +7291,7 @@
         <v>8</v>
       </c>
       <c r="E345" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
@@ -7299,7 +7302,7 @@
         <v>5</v>
       </c>
       <c r="E346" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
@@ -7343,7 +7346,7 @@
         <v>5</v>
       </c>
       <c r="E350" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
@@ -7365,7 +7368,7 @@
         <v>5</v>
       </c>
       <c r="E352" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
@@ -7376,7 +7379,7 @@
         <v>5</v>
       </c>
       <c r="E353" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
@@ -7387,7 +7390,7 @@
         <v>5</v>
       </c>
       <c r="E354" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
@@ -7409,7 +7412,7 @@
         <v>5</v>
       </c>
       <c r="E356" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
@@ -7420,7 +7423,7 @@
         <v>5</v>
       </c>
       <c r="E357" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
@@ -7431,7 +7434,7 @@
         <v>5</v>
       </c>
       <c r="E358" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
@@ -7475,7 +7478,7 @@
         <v>8</v>
       </c>
       <c r="E362" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
@@ -7486,7 +7489,7 @@
         <v>5</v>
       </c>
       <c r="E363" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
@@ -7497,7 +7500,7 @@
         <v>5</v>
       </c>
       <c r="E364" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
@@ -7519,7 +7522,7 @@
         <v>5</v>
       </c>
       <c r="E366" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
@@ -7530,7 +7533,7 @@
         <v>8</v>
       </c>
       <c r="E367" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
@@ -7541,7 +7544,7 @@
         <v>5</v>
       </c>
       <c r="E368" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
@@ -7552,7 +7555,7 @@
         <v>8</v>
       </c>
       <c r="E369" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
@@ -7574,7 +7577,7 @@
         <v>5</v>
       </c>
       <c r="E371" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
@@ -7585,7 +7588,7 @@
         <v>8</v>
       </c>
       <c r="E372" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
@@ -7607,7 +7610,7 @@
         <v>5</v>
       </c>
       <c r="E374" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
@@ -7640,7 +7643,7 @@
         <v>5</v>
       </c>
       <c r="E377" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
@@ -7662,7 +7665,7 @@
         <v>8</v>
       </c>
       <c r="E379" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
@@ -7673,7 +7676,7 @@
         <v>5</v>
       </c>
       <c r="E380" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
@@ -7684,7 +7687,7 @@
         <v>5</v>
       </c>
       <c r="E381" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
@@ -7720,7 +7723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>387</v>
       </c>
@@ -7731,7 +7734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>388</v>
       </c>
@@ -7739,10 +7742,10 @@
         <v>8</v>
       </c>
       <c r="E386" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>389</v>
       </c>
@@ -7753,7 +7756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>390</v>
       </c>
@@ -7764,7 +7767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>391</v>
       </c>
@@ -7772,10 +7775,10 @@
         <v>5</v>
       </c>
       <c r="E389" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>392</v>
       </c>
@@ -7783,10 +7786,10 @@
         <v>8</v>
       </c>
       <c r="E390" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>393</v>
       </c>
@@ -7794,10 +7797,10 @@
         <v>8</v>
       </c>
       <c r="E391" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>394</v>
       </c>
@@ -7807,8 +7810,11 @@
       <c r="E392" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G392" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>395</v>
       </c>
@@ -7819,7 +7825,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>396</v>
       </c>
@@ -7830,7 +7836,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>397</v>
       </c>
@@ -7841,7 +7847,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>398</v>
       </c>
@@ -7852,7 +7858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>399</v>
       </c>
@@ -7860,10 +7866,10 @@
         <v>8</v>
       </c>
       <c r="E397" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>400</v>
       </c>
@@ -7874,7 +7880,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>401</v>
       </c>
@@ -7885,7 +7891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>402</v>
       </c>
@@ -7893,7 +7899,7 @@
         <v>8</v>
       </c>
       <c r="E400" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.3">
@@ -7915,7 +7921,7 @@
         <v>5</v>
       </c>
       <c r="E402" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.3">
@@ -7926,7 +7932,7 @@
         <v>5</v>
       </c>
       <c r="E403" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.3">
@@ -7959,7 +7965,7 @@
         <v>8</v>
       </c>
       <c r="E406" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.3">
@@ -7970,7 +7976,7 @@
         <v>8</v>
       </c>
       <c r="E407" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.3">
@@ -7992,7 +7998,7 @@
         <v>5</v>
       </c>
       <c r="E409" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.3">
@@ -8003,7 +8009,7 @@
         <v>5</v>
       </c>
       <c r="E410" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.3">
@@ -8014,7 +8020,7 @@
         <v>5</v>
       </c>
       <c r="E411" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
@@ -8036,7 +8042,7 @@
         <v>5</v>
       </c>
       <c r="E413" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.3">
@@ -8047,7 +8053,7 @@
         <v>8</v>
       </c>
       <c r="E414" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.3">
@@ -8058,7 +8064,7 @@
         <v>8</v>
       </c>
       <c r="E415" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.3">
@@ -8069,7 +8075,7 @@
         <v>5</v>
       </c>
       <c r="E416" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.3">
@@ -8124,7 +8130,7 @@
         <v>8</v>
       </c>
       <c r="E421" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.3">
@@ -8157,7 +8163,7 @@
         <v>8</v>
       </c>
       <c r="E424" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
@@ -8179,7 +8185,7 @@
         <v>5</v>
       </c>
       <c r="E426" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
@@ -8190,7 +8196,7 @@
         <v>8</v>
       </c>
       <c r="E427" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.3">
@@ -8201,7 +8207,7 @@
         <v>8</v>
       </c>
       <c r="E428" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.3">
@@ -8212,7 +8218,7 @@
         <v>8</v>
       </c>
       <c r="E429" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.3">
@@ -8223,7 +8229,7 @@
         <v>8</v>
       </c>
       <c r="E430" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.3">
@@ -8234,7 +8240,7 @@
         <v>5</v>
       </c>
       <c r="E431" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.3">
@@ -8256,7 +8262,7 @@
         <v>5</v>
       </c>
       <c r="E433" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.3">
@@ -8267,7 +8273,7 @@
         <v>8</v>
       </c>
       <c r="E434" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.3">
@@ -8278,7 +8284,7 @@
         <v>8</v>
       </c>
       <c r="E435" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.3">
@@ -8300,7 +8306,7 @@
         <v>8</v>
       </c>
       <c r="E437" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.3">
@@ -8344,7 +8350,7 @@
         <v>5</v>
       </c>
       <c r="E441" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.3">
@@ -8410,7 +8416,7 @@
         <v>8</v>
       </c>
       <c r="E447" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.3">
@@ -8421,7 +8427,7 @@
         <v>8</v>
       </c>
       <c r="E448" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.3">
@@ -8432,7 +8438,7 @@
         <v>8</v>
       </c>
       <c r="E449" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.3">
@@ -8454,7 +8460,7 @@
         <v>5</v>
       </c>
       <c r="E451" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.3">
@@ -8465,7 +8471,7 @@
         <v>5</v>
       </c>
       <c r="E452" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.3">
@@ -8487,7 +8493,7 @@
         <v>5</v>
       </c>
       <c r="E454" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.3">
@@ -8498,7 +8504,7 @@
         <v>5</v>
       </c>
       <c r="E455" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.3">
